--- a/src/main/resources/testdata/Testdata.xlsx
+++ b/src/main/resources/testdata/Testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvenk\eclipse-workspace\com.OrangeHRM\src\main\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027C0B9F-53AF-427B-8573-A946773A90A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31B834B-861B-4FE9-8B21-E9D3AF85D8C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>Password</t>
   </si>
@@ -69,6 +69,42 @@
   </si>
   <si>
     <t>Automation Exercise - Checkout</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Rs. 500</t>
+  </si>
+  <si>
+    <t>Productname1</t>
+  </si>
+  <si>
+    <t>Pricelabel</t>
+  </si>
+  <si>
+    <t>cart_price</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>Productname2</t>
+  </si>
+  <si>
+    <t>Men Tshirt</t>
+  </si>
+  <si>
+    <t>Product2price</t>
+  </si>
+  <si>
+    <t>Rs. 400</t>
   </si>
 </sst>
 </file>
@@ -442,7 +478,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
+      <selection activeCell="D4" sqref="D3:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -521,19 +557,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96FC845-2934-4C82-A1E2-554D4F4E64FA}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="18.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="7" max="7" width="27.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -544,16 +582,34 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -567,10 +623,28 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/testdata/Testdata.xlsx
+++ b/src/main/resources/testdata/Testdata.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvenk\eclipse-workspace\com.OrangeHRM\src\main\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31B834B-861B-4FE9-8B21-E9D3AF85D8C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9935118-3926-434F-94E4-DFE0A5C3FCFE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="SearchProduct" sheetId="2" r:id="rId2"/>
-    <sheet name="AddProduct" sheetId="3" r:id="rId3"/>
+    <sheet name="Category" sheetId="4" r:id="rId3"/>
+    <sheet name="AddProduct" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="47">
   <si>
     <t>Password</t>
   </si>
@@ -47,9 +48,6 @@
     <t>Hometitle</t>
   </si>
   <si>
-    <t>Productname</t>
-  </si>
-  <si>
     <t>Blue Top</t>
   </si>
   <si>
@@ -105,6 +103,72 @@
   </si>
   <si>
     <t>Rs. 400</t>
+  </si>
+  <si>
+    <t>ProductTitle</t>
+  </si>
+  <si>
+    <t>Automation Exercise - All Products</t>
+  </si>
+  <si>
+    <t>Rs. 600</t>
+  </si>
+  <si>
+    <t>Rs. 700</t>
+  </si>
+  <si>
+    <t>Madame Top For Women</t>
+  </si>
+  <si>
+    <t>Frozen Tops For Kids</t>
+  </si>
+  <si>
+    <t>Rs. 1000</t>
+  </si>
+  <si>
+    <t>Rs. 278</t>
+  </si>
+  <si>
+    <t>Summer White Top</t>
+  </si>
+  <si>
+    <t>Printed Off Shoulder Top - White</t>
+  </si>
+  <si>
+    <t>Rs. 315</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>SubCategory</t>
+  </si>
+  <si>
+    <t>Women</t>
+  </si>
+  <si>
+    <t>Tops</t>
+  </si>
+  <si>
+    <t>Dress</t>
+  </si>
+  <si>
+    <t>Saree</t>
+  </si>
+  <si>
+    <t>Men</t>
+  </si>
+  <si>
+    <t>Kids</t>
+  </si>
+  <si>
+    <t>Tops &amp; Shirts</t>
+  </si>
+  <si>
+    <t>Jeans</t>
+  </si>
+  <si>
+    <t>Tshirts</t>
   </si>
 </sst>
 </file>
@@ -128,7 +192,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -138,6 +202,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -155,10 +225,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -478,7 +549,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D3:D4"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -497,7 +568,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -511,7 +582,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -525,7 +596,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -539,7 +610,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -556,22 +627,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96FC845-2934-4C82-A1E2-554D4F4E64FA}">
-  <dimension ref="A1:L2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D942D99-360E-4D91-A18D-BF7A088B4850}">
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="7" max="7" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -582,75 +651,384 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{82ABF921-65BA-4330-8704-755D001BBB41}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{2775E35E-9DF1-4557-B0EC-D668735DCDCA}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{08EFD355-69D4-41CA-B79D-D5266BC2E3B4}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{3F80F7D9-A791-4FF6-A734-2AC5E4DBCEC0}"/>
+    <hyperlink ref="A4" r:id="rId5" xr:uid="{EB5E70F6-7C75-42D6-91F3-CD00771FEEC2}"/>
+    <hyperlink ref="B4" r:id="rId6" xr:uid="{B46F56D2-B38B-42F3-920B-15499F235A2C}"/>
+    <hyperlink ref="A5" r:id="rId7" xr:uid="{58C0C42A-8E36-497C-891F-B7D891F4CAC3}"/>
+    <hyperlink ref="B5" r:id="rId8" xr:uid="{7C37362A-2C0D-430E-864F-E895DF505328}"/>
+    <hyperlink ref="A6" r:id="rId9" xr:uid="{118F3DDE-9112-4EB9-8C2F-D921D6F5E5E4}"/>
+    <hyperlink ref="B6" r:id="rId10" xr:uid="{380DA0A1-06E3-4971-821F-9BEBAACF54DD}"/>
+    <hyperlink ref="A7" r:id="rId11" xr:uid="{FCA875E2-312C-452B-98EC-B9B24828945E}"/>
+    <hyperlink ref="B7" r:id="rId12" xr:uid="{FC38F397-A386-4631-83C2-0440257174CD}"/>
+    <hyperlink ref="A8" r:id="rId13" xr:uid="{C423DEAE-3089-4645-ABD2-9478D080CE33}"/>
+    <hyperlink ref="B8" r:id="rId14" xr:uid="{9BFDF1D6-9DEF-467A-8506-E8BD195FAA53}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96FC845-2934-4C82-A1E2-554D4F4E64FA}">
+  <dimension ref="A1:M5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.08984375" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="8" max="8" width="27.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K2" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
         <v>20</v>
       </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" t="s">
-        <v>21</v>
+      <c r="M3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{9DB898A8-0874-4D35-9F90-16A3C5537873}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{356C7E33-C54C-4DF9-B989-2ED4A0031DAB}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{EE05A95C-8AE5-41CF-8C18-38373E4F2B60}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{848B35B7-992B-47FD-9F3E-517EEDC96328}"/>
+    <hyperlink ref="A4" r:id="rId5" xr:uid="{E6EA1B01-205E-45E2-A3E3-2A67084EEAB6}"/>
+    <hyperlink ref="B4" r:id="rId6" xr:uid="{6C7B8DD5-3B7A-462F-A971-F7BC2A9484E0}"/>
+    <hyperlink ref="A5" r:id="rId7" xr:uid="{9191B3F2-E803-4FCA-BBF0-CB1E8428B339}"/>
+    <hyperlink ref="B5" r:id="rId8" xr:uid="{65D17984-EE42-44DB-9DF3-16505ECFEA06}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/testdata/Testdata.xlsx
+++ b/src/main/resources/testdata/Testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvenk\eclipse-workspace\com.OrangeHRM\src\main\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9935118-3926-434F-94E4-DFE0A5C3FCFE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867D94A7-5384-487D-8C89-39385D2238B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -548,12 +548,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF55831-103C-4549-A9EE-26A78AB0549D}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="3" max="3" width="18.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -630,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D942D99-360E-4D91-A18D-BF7A088B4850}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/main/resources/testdata/Testdata.xlsx
+++ b/src/main/resources/testdata/Testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvenk\eclipse-workspace\com.OrangeHRM\src\main\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867D94A7-5384-487D-8C89-39385D2238B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7C42C5-F575-49C4-AB82-41DFC846150F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="59">
   <si>
     <t>Password</t>
   </si>
@@ -169,6 +169,42 @@
   </si>
   <si>
     <t>Tshirts</t>
+  </si>
+  <si>
+    <t>Tabnames</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Cart</t>
+  </si>
+  <si>
+    <t>Tabtitle</t>
+  </si>
+  <si>
+    <t>Test Cases</t>
+  </si>
+  <si>
+    <t>Automation Practice Website for UI Testing - Test Cases</t>
+  </si>
+  <si>
+    <t>Automation Practice for API Testing</t>
+  </si>
+  <si>
+    <t>API Testing</t>
+  </si>
+  <si>
+    <t>AutomationExercise - YouTube</t>
+  </si>
+  <si>
+    <t>Automation Exercise - Contact Us</t>
+  </si>
+  <si>
+    <t>Contact us</t>
+  </si>
+  <si>
+    <t>Video Tutorials</t>
   </si>
 </sst>
 </file>
@@ -511,34 +547,126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{6BAAB9C5-ACAB-493C-AD4E-8672D5252E92}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{3E52BF56-4603-4B83-9D45-B49D50C93CA8}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{E448EDF0-8DFA-450E-8BDD-086744312E4F}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{CBCBFFC9-5971-4880-B1AB-E5C419B5162D}"/>
+    <hyperlink ref="A4" r:id="rId5" xr:uid="{C322FD76-54A2-4FB5-8824-4AB34ED906F4}"/>
+    <hyperlink ref="B4" r:id="rId6" xr:uid="{0AA82EDC-5BF8-4374-A667-D7A3E91B7407}"/>
+    <hyperlink ref="A5" r:id="rId7" xr:uid="{7A0C58CC-0DE9-46B2-8C0F-147713DA3C2D}"/>
+    <hyperlink ref="B5" r:id="rId8" xr:uid="{BC443910-B152-479C-831B-37179A9B3EFF}"/>
+    <hyperlink ref="A6" r:id="rId9" xr:uid="{486B2C12-66C5-4051-AB57-1E149D4DF54C}"/>
+    <hyperlink ref="B6" r:id="rId10" xr:uid="{5E039F2F-BF2E-4E22-A5F6-FCD8DCD6464C}"/>
+    <hyperlink ref="A7" r:id="rId11" xr:uid="{187F7F76-2620-4BBC-8CA1-30ACC1F24F04}"/>
+    <hyperlink ref="B7" r:id="rId12" xr:uid="{8BC91803-0AC6-47CD-8B9C-75B26EFA78AE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -548,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF55831-103C-4549-A9EE-26A78AB0549D}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/main/resources/testdata/Testdata.xlsx
+++ b/src/main/resources/testdata/Testdata.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvenk\eclipse-workspace\com.OrangeHRM\src\main\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7C42C5-F575-49C4-AB82-41DFC846150F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B857700-1C61-425C-9796-811692B538B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="SearchProduct" sheetId="2" r:id="rId2"/>
     <sheet name="Category" sheetId="4" r:id="rId3"/>
     <sheet name="AddProduct" sheetId="3" r:id="rId4"/>
+    <sheet name="AddContact" sheetId="5" r:id="rId5"/>
+    <sheet name="EndToEnd" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="92">
   <si>
     <t>Password</t>
   </si>
@@ -205,6 +207,105 @@
   </si>
   <si>
     <t>Video Tutorials</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>Alertmsg</t>
+  </si>
+  <si>
+    <t>ajc@testgmail.com</t>
+  </si>
+  <si>
+    <t>testonly</t>
+  </si>
+  <si>
+    <t>Press OK to proceed!</t>
+  </si>
+  <si>
+    <t>Success! Your details have been submitted successfully.</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>test4</t>
+  </si>
+  <si>
+    <t>test5</t>
+  </si>
+  <si>
+    <t>testing1</t>
+  </si>
+  <si>
+    <t>testing2</t>
+  </si>
+  <si>
+    <t>testing3</t>
+  </si>
+  <si>
+    <t>testing4</t>
+  </si>
+  <si>
+    <t>testing5</t>
+  </si>
+  <si>
+    <t>successmsg</t>
+  </si>
+  <si>
+    <t>Product1price</t>
+  </si>
+  <si>
+    <t>Product1qty</t>
+  </si>
+  <si>
+    <t>Product2qty</t>
+  </si>
+  <si>
+    <t>Quantitylabel</t>
+  </si>
+  <si>
+    <t>cart_quantity</t>
+  </si>
+  <si>
+    <t>cart_total</t>
+  </si>
+  <si>
+    <t>Totallabel</t>
+  </si>
+  <si>
+    <t>Product1Total</t>
+  </si>
+  <si>
+    <t>Product2Total</t>
+  </si>
+  <si>
+    <t>TotalAmount</t>
+  </si>
+  <si>
+    <t>Pure Cotton V-Neck T-Shirt</t>
+  </si>
+  <si>
+    <t>Rs. 1299</t>
+  </si>
+  <si>
+    <t>Rs. 1799</t>
   </si>
 </sst>
 </file>
@@ -228,7 +329,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -247,6 +348,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -261,11 +368,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -549,7 +657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -931,7 +1039,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1161,4 +1269,331 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B325CEFF-1523-4C78-BA1C-0E389FC12ACD}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{98BFF21B-C7B2-46CD-A5CA-62871624CF72}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{BAF61F2F-9174-43C6-9521-E0ABA7F1A190}"/>
+    <hyperlink ref="D2" r:id="rId3" xr:uid="{46ADC6E6-2D16-43A5-B478-CD751822CEA2}"/>
+    <hyperlink ref="A3" r:id="rId4" xr:uid="{2F5BCA64-FCC4-4713-9588-3F42683F3652}"/>
+    <hyperlink ref="A4" r:id="rId5" xr:uid="{CA9B22C5-0CDC-42F7-B2DC-E8159529986E}"/>
+    <hyperlink ref="A5" r:id="rId6" xr:uid="{0E088FA0-CF96-44EB-BC3C-F0140CBA69B4}"/>
+    <hyperlink ref="A6" r:id="rId7" xr:uid="{B0C28E56-C314-4C76-A952-14306B12E69C}"/>
+    <hyperlink ref="B3" r:id="rId8" xr:uid="{D01ED502-9009-4499-8E57-7A24704B7FD2}"/>
+    <hyperlink ref="B4" r:id="rId9" xr:uid="{ABF37077-E425-4281-A46C-FC8BFEBB5C83}"/>
+    <hyperlink ref="B5" r:id="rId10" xr:uid="{57A13BA4-FDDD-4B14-937C-B67F96F70552}"/>
+    <hyperlink ref="B6" r:id="rId11" xr:uid="{47C07DFA-2386-4958-B0B8-745004B443B7}"/>
+    <hyperlink ref="D3" r:id="rId12" xr:uid="{90A3DFEE-EDB3-4811-B262-2C01999C4A27}"/>
+    <hyperlink ref="D4" r:id="rId13" xr:uid="{47D7D422-5FF8-493D-A719-128C792C3D64}"/>
+    <hyperlink ref="D5" r:id="rId14" xr:uid="{20AF6DE1-EE0A-417B-B67E-2BE3D79AA06A}"/>
+    <hyperlink ref="D6" r:id="rId15" xr:uid="{5D8127ED-2B0E-4B71-9FB2-523961D87D4D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D0AFD68-D520-491C-B9C1-E3ED353B4B72}">
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.08984375" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="18" max="18" width="11.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>84</v>
+      </c>
+      <c r="R2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{DC4C49EA-6DAC-4E2A-A330-F3BDC5032A7F}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{2225DB50-455F-4CB7-8A20-16DED169D040}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/resources/testdata/Testdata.xlsx
+++ b/src/main/resources/testdata/Testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvenk\eclipse-workspace\com.OrangeHRM\src\main\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B857700-1C61-425C-9796-811692B538B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6AD1A7-B87B-43C0-AFFD-3DE306B0958D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="96">
   <si>
     <t>Password</t>
   </si>
@@ -299,13 +299,25 @@
     <t>TotalAmount</t>
   </si>
   <si>
-    <t>Pure Cotton V-Neck T-Shirt</t>
-  </si>
-  <si>
-    <t>Rs. 1299</t>
-  </si>
-  <si>
-    <t>Rs. 1799</t>
+    <t>Rs. 900</t>
+  </si>
+  <si>
+    <t>payeename</t>
+  </si>
+  <si>
+    <t>cardnum</t>
+  </si>
+  <si>
+    <t>cvc</t>
+  </si>
+  <si>
+    <t>monthexpiry</t>
+  </si>
+  <si>
+    <t>yearexpiry</t>
+  </si>
+  <si>
+    <t>Tester</t>
   </si>
 </sst>
 </file>
@@ -1461,10 +1473,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D0AFD68-D520-491C-B9C1-E3ED353B4B72}">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="K2" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1477,7 +1489,7 @@
     <col min="18" max="18" width="11.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1532,8 +1544,23 @@
       <c r="R1" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1565,16 +1592,16 @@
         <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="L2" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="M2">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="O2" t="s">
         <v>19</v>
@@ -1586,7 +1613,22 @@
         <v>84</v>
       </c>
       <c r="R2" t="s">
-        <v>91</v>
+        <v>89</v>
+      </c>
+      <c r="S2" t="s">
+        <v>95</v>
+      </c>
+      <c r="T2">
+        <v>12345</v>
+      </c>
+      <c r="U2">
+        <v>311</v>
+      </c>
+      <c r="V2">
+        <v>11</v>
+      </c>
+      <c r="W2">
+        <v>2024</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/testdata/Testdata.xlsx
+++ b/src/main/resources/testdata/Testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvenk\eclipse-workspace\com.OrangeHRM\src\main\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6AD1A7-B87B-43C0-AFFD-3DE306B0958D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556B1A58-81AB-48AC-90D2-7FDEC904FC09}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -669,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1475,8 +1475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D0AFD68-D520-491C-B9C1-E3ED353B4B72}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K2" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/main/resources/testdata/Testdata.xlsx
+++ b/src/main/resources/testdata/Testdata.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvenk\eclipse-workspace\com.OrangeHRM\src\main\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31B834B-861B-4FE9-8B21-E9D3AF85D8C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556B1A58-81AB-48AC-90D2-7FDEC904FC09}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="SearchProduct" sheetId="2" r:id="rId2"/>
-    <sheet name="AddProduct" sheetId="3" r:id="rId3"/>
+    <sheet name="Category" sheetId="4" r:id="rId3"/>
+    <sheet name="AddProduct" sheetId="3" r:id="rId4"/>
+    <sheet name="AddContact" sheetId="5" r:id="rId5"/>
+    <sheet name="EndToEnd" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="96">
   <si>
     <t>Password</t>
   </si>
@@ -47,9 +50,6 @@
     <t>Hometitle</t>
   </si>
   <si>
-    <t>Productname</t>
-  </si>
-  <si>
     <t>Blue Top</t>
   </si>
   <si>
@@ -105,6 +105,219 @@
   </si>
   <si>
     <t>Rs. 400</t>
+  </si>
+  <si>
+    <t>ProductTitle</t>
+  </si>
+  <si>
+    <t>Automation Exercise - All Products</t>
+  </si>
+  <si>
+    <t>Rs. 600</t>
+  </si>
+  <si>
+    <t>Rs. 700</t>
+  </si>
+  <si>
+    <t>Madame Top For Women</t>
+  </si>
+  <si>
+    <t>Frozen Tops For Kids</t>
+  </si>
+  <si>
+    <t>Rs. 1000</t>
+  </si>
+  <si>
+    <t>Rs. 278</t>
+  </si>
+  <si>
+    <t>Summer White Top</t>
+  </si>
+  <si>
+    <t>Printed Off Shoulder Top - White</t>
+  </si>
+  <si>
+    <t>Rs. 315</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>SubCategory</t>
+  </si>
+  <si>
+    <t>Women</t>
+  </si>
+  <si>
+    <t>Tops</t>
+  </si>
+  <si>
+    <t>Dress</t>
+  </si>
+  <si>
+    <t>Saree</t>
+  </si>
+  <si>
+    <t>Men</t>
+  </si>
+  <si>
+    <t>Kids</t>
+  </si>
+  <si>
+    <t>Tops &amp; Shirts</t>
+  </si>
+  <si>
+    <t>Jeans</t>
+  </si>
+  <si>
+    <t>Tshirts</t>
+  </si>
+  <si>
+    <t>Tabnames</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Cart</t>
+  </si>
+  <si>
+    <t>Tabtitle</t>
+  </si>
+  <si>
+    <t>Test Cases</t>
+  </si>
+  <si>
+    <t>Automation Practice Website for UI Testing - Test Cases</t>
+  </si>
+  <si>
+    <t>Automation Practice for API Testing</t>
+  </si>
+  <si>
+    <t>API Testing</t>
+  </si>
+  <si>
+    <t>AutomationExercise - YouTube</t>
+  </si>
+  <si>
+    <t>Automation Exercise - Contact Us</t>
+  </si>
+  <si>
+    <t>Contact us</t>
+  </si>
+  <si>
+    <t>Video Tutorials</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>Alertmsg</t>
+  </si>
+  <si>
+    <t>ajc@testgmail.com</t>
+  </si>
+  <si>
+    <t>testonly</t>
+  </si>
+  <si>
+    <t>Press OK to proceed!</t>
+  </si>
+  <si>
+    <t>Success! Your details have been submitted successfully.</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>test4</t>
+  </si>
+  <si>
+    <t>test5</t>
+  </si>
+  <si>
+    <t>testing1</t>
+  </si>
+  <si>
+    <t>testing2</t>
+  </si>
+  <si>
+    <t>testing3</t>
+  </si>
+  <si>
+    <t>testing4</t>
+  </si>
+  <si>
+    <t>testing5</t>
+  </si>
+  <si>
+    <t>successmsg</t>
+  </si>
+  <si>
+    <t>Product1price</t>
+  </si>
+  <si>
+    <t>Product1qty</t>
+  </si>
+  <si>
+    <t>Product2qty</t>
+  </si>
+  <si>
+    <t>Quantitylabel</t>
+  </si>
+  <si>
+    <t>cart_quantity</t>
+  </si>
+  <si>
+    <t>cart_total</t>
+  </si>
+  <si>
+    <t>Totallabel</t>
+  </si>
+  <si>
+    <t>Product1Total</t>
+  </si>
+  <si>
+    <t>Product2Total</t>
+  </si>
+  <si>
+    <t>TotalAmount</t>
+  </si>
+  <si>
+    <t>Rs. 900</t>
+  </si>
+  <si>
+    <t>payeename</t>
+  </si>
+  <si>
+    <t>cardnum</t>
+  </si>
+  <si>
+    <t>cvc</t>
+  </si>
+  <si>
+    <t>monthexpiry</t>
+  </si>
+  <si>
+    <t>yearexpiry</t>
+  </si>
+  <si>
+    <t>Tester</t>
   </si>
 </sst>
 </file>
@@ -128,7 +341,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -138,6 +351,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -155,10 +380,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -440,34 +667,126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{6BAAB9C5-ACAB-493C-AD4E-8672D5252E92}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{3E52BF56-4603-4B83-9D45-B49D50C93CA8}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{E448EDF0-8DFA-450E-8BDD-086744312E4F}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{CBCBFFC9-5971-4880-B1AB-E5C419B5162D}"/>
+    <hyperlink ref="A4" r:id="rId5" xr:uid="{C322FD76-54A2-4FB5-8824-4AB34ED906F4}"/>
+    <hyperlink ref="B4" r:id="rId6" xr:uid="{0AA82EDC-5BF8-4374-A667-D7A3E91B7407}"/>
+    <hyperlink ref="A5" r:id="rId7" xr:uid="{7A0C58CC-0DE9-46B2-8C0F-147713DA3C2D}"/>
+    <hyperlink ref="B5" r:id="rId8" xr:uid="{BC443910-B152-479C-831B-37179A9B3EFF}"/>
+    <hyperlink ref="A6" r:id="rId9" xr:uid="{486B2C12-66C5-4051-AB57-1E149D4DF54C}"/>
+    <hyperlink ref="B6" r:id="rId10" xr:uid="{5E039F2F-BF2E-4E22-A5F6-FCD8DCD6464C}"/>
+    <hyperlink ref="A7" r:id="rId11" xr:uid="{187F7F76-2620-4BBC-8CA1-30ACC1F24F04}"/>
+    <hyperlink ref="B7" r:id="rId12" xr:uid="{8BC91803-0AC6-47CD-8B9C-75B26EFA78AE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -478,11 +797,12 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D3:D4"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="3" max="3" width="18.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -497,7 +817,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -511,7 +831,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -525,7 +845,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -539,7 +859,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -556,22 +876,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96FC845-2934-4C82-A1E2-554D4F4E64FA}">
-  <dimension ref="A1:L2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D942D99-360E-4D91-A18D-BF7A088B4850}">
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="7" max="7" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -582,34 +900,13 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -620,37 +917,724 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{82ABF921-65BA-4330-8704-755D001BBB41}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{2775E35E-9DF1-4557-B0EC-D668735DCDCA}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{08EFD355-69D4-41CA-B79D-D5266BC2E3B4}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{3F80F7D9-A791-4FF6-A734-2AC5E4DBCEC0}"/>
+    <hyperlink ref="A4" r:id="rId5" xr:uid="{EB5E70F6-7C75-42D6-91F3-CD00771FEEC2}"/>
+    <hyperlink ref="B4" r:id="rId6" xr:uid="{B46F56D2-B38B-42F3-920B-15499F235A2C}"/>
+    <hyperlink ref="A5" r:id="rId7" xr:uid="{58C0C42A-8E36-497C-891F-B7D891F4CAC3}"/>
+    <hyperlink ref="B5" r:id="rId8" xr:uid="{7C37362A-2C0D-430E-864F-E895DF505328}"/>
+    <hyperlink ref="A6" r:id="rId9" xr:uid="{118F3DDE-9112-4EB9-8C2F-D921D6F5E5E4}"/>
+    <hyperlink ref="B6" r:id="rId10" xr:uid="{380DA0A1-06E3-4971-821F-9BEBAACF54DD}"/>
+    <hyperlink ref="A7" r:id="rId11" xr:uid="{FCA875E2-312C-452B-98EC-B9B24828945E}"/>
+    <hyperlink ref="B7" r:id="rId12" xr:uid="{FC38F397-A386-4631-83C2-0440257174CD}"/>
+    <hyperlink ref="A8" r:id="rId13" xr:uid="{C423DEAE-3089-4645-ABD2-9478D080CE33}"/>
+    <hyperlink ref="B8" r:id="rId14" xr:uid="{9BFDF1D6-9DEF-467A-8506-E8BD195FAA53}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96FC845-2934-4C82-A1E2-554D4F4E64FA}">
+  <dimension ref="A1:M5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.08984375" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="8" max="8" width="27.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
         <v>20</v>
       </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" t="s">
-        <v>21</v>
+      <c r="M3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{9DB898A8-0874-4D35-9F90-16A3C5537873}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{356C7E33-C54C-4DF9-B989-2ED4A0031DAB}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{EE05A95C-8AE5-41CF-8C18-38373E4F2B60}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{848B35B7-992B-47FD-9F3E-517EEDC96328}"/>
+    <hyperlink ref="A4" r:id="rId5" xr:uid="{E6EA1B01-205E-45E2-A3E3-2A67084EEAB6}"/>
+    <hyperlink ref="B4" r:id="rId6" xr:uid="{6C7B8DD5-3B7A-462F-A971-F7BC2A9484E0}"/>
+    <hyperlink ref="A5" r:id="rId7" xr:uid="{9191B3F2-E803-4FCA-BBF0-CB1E8428B339}"/>
+    <hyperlink ref="B5" r:id="rId8" xr:uid="{65D17984-EE42-44DB-9DF3-16505ECFEA06}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B325CEFF-1523-4C78-BA1C-0E389FC12ACD}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{98BFF21B-C7B2-46CD-A5CA-62871624CF72}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{BAF61F2F-9174-43C6-9521-E0ABA7F1A190}"/>
+    <hyperlink ref="D2" r:id="rId3" xr:uid="{46ADC6E6-2D16-43A5-B478-CD751822CEA2}"/>
+    <hyperlink ref="A3" r:id="rId4" xr:uid="{2F5BCA64-FCC4-4713-9588-3F42683F3652}"/>
+    <hyperlink ref="A4" r:id="rId5" xr:uid="{CA9B22C5-0CDC-42F7-B2DC-E8159529986E}"/>
+    <hyperlink ref="A5" r:id="rId6" xr:uid="{0E088FA0-CF96-44EB-BC3C-F0140CBA69B4}"/>
+    <hyperlink ref="A6" r:id="rId7" xr:uid="{B0C28E56-C314-4C76-A952-14306B12E69C}"/>
+    <hyperlink ref="B3" r:id="rId8" xr:uid="{D01ED502-9009-4499-8E57-7A24704B7FD2}"/>
+    <hyperlink ref="B4" r:id="rId9" xr:uid="{ABF37077-E425-4281-A46C-FC8BFEBB5C83}"/>
+    <hyperlink ref="B5" r:id="rId10" xr:uid="{57A13BA4-FDDD-4B14-937C-B67F96F70552}"/>
+    <hyperlink ref="B6" r:id="rId11" xr:uid="{47C07DFA-2386-4958-B0B8-745004B443B7}"/>
+    <hyperlink ref="D3" r:id="rId12" xr:uid="{90A3DFEE-EDB3-4811-B262-2C01999C4A27}"/>
+    <hyperlink ref="D4" r:id="rId13" xr:uid="{47D7D422-5FF8-493D-A719-128C792C3D64}"/>
+    <hyperlink ref="D5" r:id="rId14" xr:uid="{20AF6DE1-EE0A-417B-B67E-2BE3D79AA06A}"/>
+    <hyperlink ref="D6" r:id="rId15" xr:uid="{5D8127ED-2B0E-4B71-9FB2-523961D87D4D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D0AFD68-D520-491C-B9C1-E3ED353B4B72}">
+  <dimension ref="A1:W2"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.08984375" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="18" max="18" width="11.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>84</v>
+      </c>
+      <c r="R2" t="s">
+        <v>89</v>
+      </c>
+      <c r="S2" t="s">
+        <v>95</v>
+      </c>
+      <c r="T2">
+        <v>12345</v>
+      </c>
+      <c r="U2">
+        <v>311</v>
+      </c>
+      <c r="V2">
+        <v>11</v>
+      </c>
+      <c r="W2">
+        <v>2024</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{DC4C49EA-6DAC-4E2A-A330-F3BDC5032A7F}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{2225DB50-455F-4CB7-8A20-16DED169D040}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/testdata/Testdata.xlsx
+++ b/src/main/resources/testdata/Testdata.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvenk\eclipse-workspace\com.OrangeHRM\src\main\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556B1A58-81AB-48AC-90D2-7FDEC904FC09}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE82727A-8501-4308-B4E4-4407AA55BBBE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="SearchProduct" sheetId="2" r:id="rId2"/>
-    <sheet name="Category" sheetId="4" r:id="rId3"/>
-    <sheet name="AddProduct" sheetId="3" r:id="rId4"/>
-    <sheet name="AddContact" sheetId="5" r:id="rId5"/>
-    <sheet name="EndToEnd" sheetId="7" r:id="rId6"/>
+    <sheet name="data" sheetId="9" r:id="rId1"/>
+    <sheet name="Testing" sheetId="8" r:id="rId2"/>
+    <sheet name="Login" sheetId="1" r:id="rId3"/>
+    <sheet name="SearchProduct" sheetId="2" r:id="rId4"/>
+    <sheet name="Category" sheetId="4" r:id="rId5"/>
+    <sheet name="AddProduct" sheetId="3" r:id="rId6"/>
+    <sheet name="AddContact" sheetId="5" r:id="rId7"/>
+    <sheet name="EndToEnd" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="108">
   <si>
     <t>Password</t>
   </si>
@@ -318,6 +320,42 @@
   </si>
   <si>
     <t>Tester</t>
+  </si>
+  <si>
+    <t>TestCaseName</t>
+  </si>
+  <si>
+    <t>TC001</t>
+  </si>
+  <si>
+    <t>TC002</t>
+  </si>
+  <si>
+    <t>TC003</t>
+  </si>
+  <si>
+    <t>TC004</t>
+  </si>
+  <si>
+    <t>TC005</t>
+  </si>
+  <si>
+    <t>TC006</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>practice</t>
+  </si>
+  <si>
+    <t>SuperSecretPassword!</t>
+  </si>
+  <si>
+    <t>Welcome to the Secure Area. When you are done click logout below.</t>
   </si>
 </sst>
 </file>
@@ -666,10 +704,195 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB9D69D-4240-412C-9AD6-B088DF3EE3A0}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677A1A17-6986-4C14-B764-D765E10EBA20}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{D714E8DC-0F2F-4F6A-A59E-23195767B422}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{F9507924-5285-4809-9C8C-6E0295F6184B}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{E03B270F-85F7-41BA-BA1B-974D0DAA4ED8}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{4B75D21E-10D1-4320-B264-6072815FD81C}"/>
+    <hyperlink ref="B4" r:id="rId5" xr:uid="{DCCF7BB3-3D3B-42B2-A197-D57B208D357C}"/>
+    <hyperlink ref="C4" r:id="rId6" xr:uid="{F2CE70BA-EE9C-4881-83C4-9AC9ACCC52B7}"/>
+    <hyperlink ref="B5" r:id="rId7" xr:uid="{325279D5-6D6A-43F1-9761-91D8AE14EEC8}"/>
+    <hyperlink ref="C5" r:id="rId8" xr:uid="{C04CB5B5-F55D-4A21-97F5-617CFC74883D}"/>
+    <hyperlink ref="B6" r:id="rId9" xr:uid="{890AA708-5612-438B-8A84-598C27A3B68D}"/>
+    <hyperlink ref="C6" r:id="rId10" xr:uid="{63665087-FFFE-42AD-8467-7F8D346B1DE8}"/>
+    <hyperlink ref="B7" r:id="rId11" xr:uid="{DE24B44A-A871-4109-BE1A-EA0EF02F8F6E}"/>
+    <hyperlink ref="C7" r:id="rId12" xr:uid="{2A163B63-3920-40ED-A812-7C1A1230792B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -792,7 +1015,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF55831-103C-4549-A9EE-26A78AB0549D}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -875,7 +1098,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D942D99-360E-4D91-A18D-BF7A088B4850}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -1046,7 +1269,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96FC845-2934-4C82-A1E2-554D4F4E64FA}">
   <dimension ref="A1:M5"/>
   <sheetViews>
@@ -1283,7 +1506,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B325CEFF-1523-4C78-BA1C-0E389FC12ACD}">
   <dimension ref="A1:H6"/>
   <sheetViews>
@@ -1471,7 +1694,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D0AFD68-D520-491C-B9C1-E3ED353B4B72}">
   <dimension ref="A1:W2"/>
   <sheetViews>
